--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pccha\IdeaProjects\APITest_2\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9A9716-AE47-4F30-9BB0-CF77C197BFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEDB230-BD2F-489C-B726-4F363C283C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{CF5EDC37-8322-4DF8-80D3-341056306236}"/>
+    <workbookView xWindow="15210" yWindow="2250" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{CF5EDC37-8322-4DF8-80D3-341056306236}"/>
   </bookViews>
   <sheets>
     <sheet name="validateCreatedCustomerAPI" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,10 @@
     <t>foreign customer</t>
   </si>
   <si>
-    <t>cus_HPc5YnI8TQBc9p</t>
-  </si>
-  <si>
-    <t>cus_HPc5wDC3Y298Pp</t>
+    <t>cus_HQQRHsmrngiEGC</t>
+  </si>
+  <si>
+    <t>cus_HQQRYyLq1gAPku</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pccha\IdeaProjects\APITest_2\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEDB230-BD2F-489C-B726-4F363C283C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8EF4D6-2654-48B7-8F0D-56811D1D7A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="2250" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{CF5EDC37-8322-4DF8-80D3-341056306236}"/>
+    <workbookView xWindow="9600" yWindow="2250" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{CF5EDC37-8322-4DF8-80D3-341056306236}"/>
   </bookViews>
   <sheets>
     <sheet name="validateCreatedCustomerAPI" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>cus_HQQRYyLq1gAPku</t>
+  </si>
+  <si>
+    <t>cus_HPcMH1EQbnqluZ</t>
+  </si>
+  <si>
+    <t>cus_HPcMUeV59hDqjj</t>
   </si>
 </sst>
 </file>
@@ -574,10 +580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1042CAE3-1448-4DD1-B1F8-37DA61C189BF}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +606,16 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
